--- a/data/trans_orig/P14C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3651596C-DE7A-4B39-805E-2C5E849FB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1177020-4AB2-4691-A314-85F6161BAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C0D315E-A6C7-44FD-A02F-05DD8FB0AAF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5624E6D-12D9-4A46-9A5C-4F3A466EDC9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
   <si>
     <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -107,49 +107,49 @@
     <t>36,63%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>64,89%</t>
+    <t>64,28%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>58,65%</t>
+    <t>62,28%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -158,58 +158,55 @@
     <t>45,96%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>82,54%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>72,97%</t>
+    <t>72,38%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>36,88%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
   </si>
   <si>
     <t>33,62%</t>
   </si>
   <si>
-    <t>69,67%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -218,7 +215,7 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>33,24%</t>
+    <t>29,3%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -227,73 +224,73 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>62,36%</t>
+    <t>81,44%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>18,54%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>81,1%</t>
+    <t>79,67%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -302,10 +299,10 @@
     <t>38,55%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>54,01%</t>
@@ -320,19 +317,19 @@
     <t>48,72%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>30,06%</t>
@@ -347,19 +344,19 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>15,92%</t>
@@ -374,91 +371,91 @@
     <t>24,33%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -873,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB608BA0-F270-4776-968C-A23FEB1DEC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABF3085-73A6-4A19-B525-DAB20BC30EFA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1586,10 +1583,10 @@
         <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1598,13 +1595,13 @@
         <v>7701</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1613,13 +1610,13 @@
         <v>10625</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,13 +1631,13 @@
         <v>1299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1649,13 +1646,13 @@
         <v>6159</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1664,13 +1661,13 @@
         <v>7458</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,13 +1682,13 @@
         <v>2139</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1706,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1715,13 +1712,13 @@
         <v>2139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,7 +1774,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1789,13 +1786,13 @@
         <v>1064</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -1804,13 +1801,13 @@
         <v>4394</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1819,13 +1816,13 @@
         <v>5458</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,10 +1837,10 @@
         <v>2897</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>15</v>
@@ -1855,13 +1852,13 @@
         <v>5678</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1870,13 +1867,13 @@
         <v>8575</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,13 +1888,13 @@
         <v>1041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1906,13 +1903,13 @@
         <v>3265</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -1921,13 +1918,13 @@
         <v>4305</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,7 +1980,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1995,13 +1992,13 @@
         <v>6690</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2010,13 +2007,13 @@
         <v>18009</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2025,13 +2022,13 @@
         <v>24699</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2043,13 @@
         <v>3637</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2061,13 +2058,13 @@
         <v>10023</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2076,13 +2073,13 @@
         <v>13660</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2094,13 @@
         <v>7026</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2112,13 +2109,13 @@
         <v>5309</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2127,13 +2124,13 @@
         <v>12335</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2198,13 @@
         <v>11695</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -2216,13 +2213,13 @@
         <v>34610</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2231,13 +2228,13 @@
         <v>46305</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2249,13 @@
         <v>7834</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2267,13 +2264,13 @@
         <v>25482</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -2282,13 +2279,13 @@
         <v>33315</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2300,13 @@
         <v>10206</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2318,13 +2315,13 @@
         <v>11058</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -2333,13 +2330,13 @@
         <v>21264</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,7 +2392,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1177020-4AB2-4691-A314-85F6161BAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7AB606-776E-4FD9-B4BB-C8C0D5686C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5624E6D-12D9-4A46-9A5C-4F3A466EDC9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59EAF619-2DF4-4B46-85F3-A80B97B24E5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
   <si>
-    <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población según el tiempo de diagnóstico del cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -107,355 +107,355 @@
     <t>36,63%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>27,82%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABF3085-73A6-4A19-B525-DAB20BC30EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A929E0A-6EF0-4675-9B3A-CE1C8E9E2449}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,10 +1583,10 @@
         <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1595,13 +1595,13 @@
         <v>7701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1610,13 +1610,13 @@
         <v>10625</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>1299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1646,13 +1646,13 @@
         <v>6159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1661,13 +1661,13 @@
         <v>7458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1682,13 @@
         <v>2139</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1712,13 +1712,13 @@
         <v>2139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1786,13 +1786,13 @@
         <v>1064</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -1801,13 +1801,13 @@
         <v>4394</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1816,13 +1816,13 @@
         <v>5458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>2897</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>15</v>
@@ -1852,13 +1852,13 @@
         <v>5678</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1867,13 +1867,13 @@
         <v>8575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1888,13 @@
         <v>1041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1903,13 +1903,13 @@
         <v>3265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -1918,13 +1918,13 @@
         <v>4305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1992,13 +1992,13 @@
         <v>6690</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2007,13 +2007,13 @@
         <v>18009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2022,13 +2022,13 @@
         <v>24699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>3637</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>10023</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2073,13 +2073,13 @@
         <v>13660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2094,13 @@
         <v>7026</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2109,10 +2109,10 @@
         <v>5309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>109</v>
@@ -2378,7 +2378,7 @@
         <v>94</v>
       </c>
       <c r="N31" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>17</v>
